--- a/data/134/DEUSTATIS/old/Index of wholesale prices - WZ.xlsx
+++ b/data/134/DEUSTATIS/old/Index of wholesale prices - WZ.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="58">
   <si>
     <t>Index of wholesale prices (incl. rates of change): Germany,
 months, economic activities (WZ2008 3-5 digit codes)</t>
@@ -191,7 +191,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:34:35</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:32:31</t>
   </si>
 </sst>
 </file>
@@ -11861,14 +11861,14 @@
       <c r="LJ9" t="n" s="10">
         <v>111.2</v>
       </c>
-      <c r="LK9" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="LL9" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="LM9" t="s" s="10">
-        <v>49</v>
+      <c r="LK9" t="n" s="10">
+        <v>111.5</v>
+      </c>
+      <c r="LL9" t="n" s="10">
+        <v>111.8</v>
+      </c>
+      <c r="LM9" t="n" s="10">
+        <v>112.4</v>
       </c>
       <c r="LN9" t="s" s="10">
         <v>49</v>
@@ -12841,14 +12841,14 @@
       <c r="LJ10" t="n" s="10">
         <v>0.3</v>
       </c>
-      <c r="LK10" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="LL10" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="LM10" t="s" s="10">
-        <v>49</v>
+      <c r="LK10" t="n" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="LL10" t="n" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="LM10" t="n" s="10">
+        <v>0.5</v>
       </c>
       <c r="LN10" t="s" s="10">
         <v>49</v>
@@ -13821,14 +13821,14 @@
       <c r="LJ11" t="n" s="10">
         <v>2.4</v>
       </c>
-      <c r="LK11" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="LL11" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="LM11" t="s" s="10">
-        <v>49</v>
+      <c r="LK11" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="LL11" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="LM11" t="n" s="10">
+        <v>4.5</v>
       </c>
       <c r="LN11" t="s" s="10">
         <v>49</v>
@@ -14806,14 +14806,14 @@
       <c r="LJ13" t="n" s="10">
         <v>120.6</v>
       </c>
-      <c r="LK13" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="LL13" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="LM13" t="s" s="10">
-        <v>49</v>
+      <c r="LK13" t="n" s="10">
+        <v>124.2</v>
+      </c>
+      <c r="LL13" t="n" s="10">
+        <v>134.3</v>
+      </c>
+      <c r="LM13" t="n" s="10">
+        <v>139.4</v>
       </c>
       <c r="LN13" t="s" s="10">
         <v>49</v>
@@ -15786,14 +15786,14 @@
       <c r="LJ14" t="n" s="10">
         <v>0.3</v>
       </c>
-      <c r="LK14" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="LL14" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="LM14" t="s" s="10">
-        <v>49</v>
+      <c r="LK14" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="LL14" t="n" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="LM14" t="n" s="10">
+        <v>3.8</v>
       </c>
       <c r="LN14" t="s" s="10">
         <v>49</v>
@@ -16766,14 +16766,14 @@
       <c r="LJ15" t="n" s="10">
         <v>35.5</v>
       </c>
-      <c r="LK15" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="LL15" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="LM15" t="s" s="10">
-        <v>49</v>
+      <c r="LK15" t="n" s="10">
+        <v>41.9</v>
+      </c>
+      <c r="LL15" t="n" s="10">
+        <v>54.2</v>
+      </c>
+      <c r="LM15" t="n" s="10">
+        <v>61.7</v>
       </c>
       <c r="LN15" t="s" s="10">
         <v>49</v>
@@ -16856,7 +16856,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:34:40&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:32:37&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>